--- a/biology/Zoologie/Himalassamia_schawalleri/Himalassamia_schawalleri.xlsx
+++ b/biology/Zoologie/Himalassamia_schawalleri/Himalassamia_schawalleri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Himalassamia schawalleri, unique représentant du genre Himalassamia, est une espèce d'opilions laniatores de la famille des Assamiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la province de Koshi au Népal[1]. Elle se rencontre dans le district de Taplejung vers Yamputhin.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la province de Koshi au Népal. Elle se rencontre dans le district de Taplejung vers Yamputhin.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 2,3 à 2,8 mm et la femelle 3,0 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 2,3 à 2,8 mm et la femelle 3,0 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Martens en 2021.
 Ce genre a été décrit par Martens en 2021 dans les Assamiidae.
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Wolfgang Schawaller[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Wolfgang Schawaller.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Martens, 2021 : « Assamiidae from the Nepal Himalayas, including a new genus and a new species, with notes on Dhaulagirius altitudinalis Martens (Arachnida: Opiliones). » Biodiversität und Naturausstattung im Himalaya VII, Naturkundemuseum Erfurt, Erfurt, p. 175–184.</t>
         </is>
